--- a/ResultsPrediction/rosegazzetta8.xlsx
+++ b/ResultsPrediction/rosegazzetta8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vittu\Documents\Stupido\Betting\ResultsPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3FCC50-48D5-4BD6-91D4-36FFC99EA657}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05870B8-211C-4556-B98E-A88CF9122458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1452" yWindow="3204" windowWidth="14892" windowHeight="7716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,9 +88,6 @@
     <t>MAGALLAN</t>
   </si>
   <si>
-    <t xml:space="preserve">MARRONE </t>
-  </si>
-  <si>
     <t>BENALI</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
     <t>LUIS ALBERTO</t>
   </si>
   <si>
-    <t xml:space="preserve">FARES </t>
-  </si>
-  <si>
     <t>CORREA</t>
   </si>
   <si>
@@ -298,9 +292,6 @@
     <t>ROGERIO</t>
   </si>
   <si>
-    <t>M.LOPEZ</t>
-  </si>
-  <si>
     <t>LOCATELLI</t>
   </si>
   <si>
@@ -712,9 +703,6 @@
     <t>MASIELLO</t>
   </si>
   <si>
-    <t>LU. PELLEGRINI</t>
-  </si>
-  <si>
     <t>LERAGER</t>
   </si>
   <si>
@@ -734,6 +722,18 @@
   </si>
   <si>
     <t>REBIC</t>
+  </si>
+  <si>
+    <t>PELLEGRINI</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>FARES</t>
+  </si>
+  <si>
+    <t>MARRONE</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1138,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1213,61 +1213,61 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="R2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="S2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="T2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="U2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -1278,61 +1278,61 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="N3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="S3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="T3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="U3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -1340,64 +1340,64 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>237</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
+        <v>203</v>
+      </c>
+      <c r="K4" t="s">
         <v>206</v>
       </c>
-      <c r="K4" t="s">
-        <v>209</v>
-      </c>
       <c r="L4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N4" t="s">
+        <v>217</v>
+      </c>
+      <c r="O4" t="s">
         <v>220</v>
       </c>
-      <c r="O4" t="s">
-        <v>223</v>
-      </c>
       <c r="P4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="S4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="T4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="U4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -1405,64 +1405,64 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" t="s">
         <v>185</v>
       </c>
-      <c r="E5" t="s">
-        <v>188</v>
-      </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="S5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="U5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -1470,64 +1470,64 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" t="s">
         <v>178</v>
       </c>
-      <c r="C6" t="s">
-        <v>181</v>
-      </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
+        <v>194</v>
+      </c>
+      <c r="H6" t="s">
         <v>197</v>
       </c>
-      <c r="H6" t="s">
-        <v>200</v>
-      </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
+        <v>211</v>
+      </c>
+      <c r="M6" t="s">
         <v>214</v>
       </c>
-      <c r="M6" t="s">
-        <v>217</v>
-      </c>
       <c r="N6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Q6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="R6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="S6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="T6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="U6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -1535,64 +1535,64 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>235</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="S7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="T7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="U7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -1600,64 +1600,64 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" t="s">
         <v>179</v>
       </c>
-      <c r="C8" t="s">
-        <v>182</v>
-      </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="R8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="S8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="T8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="U8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -1665,64 +1665,64 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="R9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="S9" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="T9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="U9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -1730,64 +1730,64 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="D10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" t="s">
         <v>192</v>
       </c>
-      <c r="F10" t="s">
-        <v>195</v>
-      </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="R10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="S10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="T10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="U10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1795,64 +1795,64 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="R11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="S11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="T11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -1860,64 +1860,64 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="R12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="S12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="T12" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="U12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
